--- a/study2/presentation_for_paper/study2b_result_summary_table.xlsx
+++ b/study2/presentation_for_paper/study2b_result_summary_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B67AD1-3025-4652-AD27-F9AEC8693C2D}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A338A1B-52CC-4583-B709-5BBD6B7B80BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Assumption Test</t>
     <phoneticPr fontId="1"/>
@@ -148,6 +148,26 @@
   </si>
   <si>
     <t>H5.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flagged</t>
+  </si>
+  <si>
+    <t>Flagged</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Composite Score Approach]
+Overall Attitude Towards AI Agent --&gt; Engagement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -192,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -448,13 +468,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +617,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +632,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,29 +662,32 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -613,396 +712,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5FCF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2FBEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5FCF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5FCF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5FCF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1127,7 +837,133 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EDAC8C-BEF8-9213-832B-CDB6E934C601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="3410858"/>
+          <a:ext cx="12167507" cy="2999014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208642</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>456293</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>208643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A382BC55-C34E-9202-EA2D-EFD1FF81045B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="208642" y="6721928"/>
+          <a:ext cx="12167508" cy="3692072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37A7FF-29BF-4061-BE3E-4B4F80131BE9}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O11" sqref="A1:O14"/>
+      <selection activeCell="O15" sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1464,13 +1300,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -1493,9 +1329,9 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="44" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
@@ -1534,10 +1370,10 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1573,16 +1409,16 @@
       <c r="M3" s="10">
         <v>1.37E-2</v>
       </c>
-      <c r="N3" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O3" s="34">
+      <c r="N3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="40">
         <v>4.5338520000000004</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
@@ -1616,14 +1452,14 @@
       <c r="M4" s="4">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N4" s="4">
-        <v>1.77E-2</v>
-      </c>
-      <c r="O4" s="35"/>
+      <c r="N4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
@@ -1657,15 +1493,15 @@
       <c r="M5" s="4">
         <v>0.22900000000000001</v>
       </c>
-      <c r="N5" s="4">
-        <v>0.26069999999999999</v>
-      </c>
-      <c r="O5" s="35"/>
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="41"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1699,16 +1535,16 @@
       <c r="M6" s="11">
         <v>0.2366</v>
       </c>
-      <c r="N6" s="11">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O6" s="36"/>
+      <c r="N6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1744,16 +1580,16 @@
       <c r="M7" s="10">
         <v>2.67002551740694E-2</v>
       </c>
-      <c r="N7" s="10">
-        <v>2.6089207949553299E-6</v>
-      </c>
-      <c r="O7" s="34">
+      <c r="N7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="40">
         <v>7.2119780265715496</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
@@ -1787,14 +1623,14 @@
       <c r="M8" s="4">
         <v>7.8388877973152998E-2</v>
       </c>
-      <c r="N8" s="4">
-        <v>0.718225538730621</v>
-      </c>
-      <c r="O8" s="35"/>
+      <c r="N8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
@@ -1828,14 +1664,14 @@
       <c r="M9" s="4">
         <v>8.2761374527393697E-3</v>
       </c>
-      <c r="N9" s="4">
-        <v>7.0431975473184098E-5</v>
-      </c>
-      <c r="O9" s="35"/>
+      <c r="N9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="17" t="s">
         <v>4</v>
       </c>
@@ -1869,16 +1705,16 @@
       <c r="M10" s="11">
         <v>5.0526849848384903E-2</v>
       </c>
-      <c r="N10" s="11">
-        <v>3.6910722656102698E-7</v>
-      </c>
-      <c r="O10" s="36"/>
+      <c r="N10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="14.5" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1914,16 +1750,16 @@
       <c r="M11" s="10">
         <v>0.28634022100196899</v>
       </c>
-      <c r="N11" s="10">
-        <v>4.1156632505590001E-5</v>
-      </c>
-      <c r="O11" s="34">
+      <c r="N11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="40">
         <v>19.992892999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="16" t="s">
         <v>2</v>
       </c>
@@ -1957,14 +1793,14 @@
       <c r="M12" s="4">
         <v>0.20341042604078699</v>
       </c>
-      <c r="N12" s="4">
-        <v>2.0730637118049299E-7</v>
-      </c>
-      <c r="O12" s="35"/>
+      <c r="N12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
@@ -1998,14 +1834,14 @@
       <c r="M13" s="4">
         <v>0.36605410157673701</v>
       </c>
-      <c r="N13" s="4">
-        <v>1.41218720273172E-6</v>
-      </c>
-      <c r="O13" s="35"/>
+      <c r="N13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="41"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
@@ -2039,13 +1875,63 @@
       <c r="M14" s="11">
         <v>0.54334794657754304</v>
       </c>
-      <c r="N14" s="11">
-        <v>1.6041551020862201E-7</v>
-      </c>
-      <c r="O14" s="36"/>
+      <c r="N14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" ht="55" customHeight="1" thickBot="1">
+      <c r="A15" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0.73</v>
+      </c>
+      <c r="F15" s="47">
+        <v>14.96</v>
+      </c>
+      <c r="G15" s="48">
+        <v>9.7700000000000005E-20</v>
+      </c>
+      <c r="H15" s="46">
+        <v>20.557200000000002</v>
+      </c>
+      <c r="I15" s="47">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="J15" s="48">
+        <v>0</v>
+      </c>
+      <c r="K15" s="49">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L15" s="47">
+        <v>1.6769000000000001</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="48">
+        <v>8.4132669999999994</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="O11:O14"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
@@ -2055,47 +1941,47 @@
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="O11:O14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G3:G1048576 J3:J1048576">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K1048576">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
       <formula>1.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="between">
       <formula>1.5</formula>
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N1048576">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="M3:M1048576">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N1048576">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study2/presentation_for_paper/study2b_result_summary_table.xlsx
+++ b/study2/presentation_for_paper/study2b_result_summary_table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F2F795-A8B1-4DC3-B948-841010073D32}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27697418-5907-4BBF-80D3-7A15C49DA25D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>Assumption Test</t>
     <phoneticPr fontId="1"/>
@@ -169,6 +170,18 @@
   <si>
     <t>Prob 
 (F - Stat)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H6.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H6.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -229,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -266,13 +279,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +428,24 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -369,47 +488,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,6 +754,67 @@
         <a:xfrm>
           <a:off x="317500" y="8400143"/>
           <a:ext cx="13745936" cy="2740479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>308428</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657678</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>225879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F41A0BC-AC01-D8ED-8212-BE8731E217CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="308428" y="11393714"/>
+          <a:ext cx="13593536" cy="2892879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,7 +1160,7 @@
   <dimension ref="C2:U19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U2" sqref="B2:U17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -970,42 +1183,42 @@
   <sheetData>
     <row r="2" spans="3:21" ht="4" customHeight="1"/>
     <row r="3" spans="3:21" ht="18" customHeight="1">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="31" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="31" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
     </row>
     <row r="4" spans="3:21" s="3" customFormat="1" ht="23">
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1018,17 +1231,17 @@
       <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45" t="s">
+      <c r="K4" s="22"/>
+      <c r="L4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="43"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1046,10 +1259,10 @@
       </c>
     </row>
     <row r="5" spans="3:21">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1091,13 +1304,13 @@
       <c r="S5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="24">
         <v>4.5338520000000004</v>
       </c>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="24"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1137,11 +1350,11 @@
       <c r="S6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="19"/>
+      <c r="T6" s="25"/>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="24"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1181,12 +1394,12 @@
       <c r="S7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="19"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="25"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1226,13 +1439,13 @@
       <c r="S8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="20"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1274,13 +1487,13 @@
       <c r="S9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="24">
         <v>7.2119780265715496</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="24"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1320,11 +1533,11 @@
       <c r="S10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="19"/>
+      <c r="T10" s="25"/>
     </row>
     <row r="11" spans="3:21">
-      <c r="C11" s="24"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1364,11 +1577,11 @@
       <c r="S11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="19"/>
+      <c r="T11" s="25"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="25"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1408,42 +1621,42 @@
       <c r="S12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="20"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="3:21" ht="14.5" customHeight="1">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33">
+      <c r="F13" s="2"/>
+      <c r="G13" s="4">
         <v>0.75806919648944804</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="4">
         <v>0.67637827582354804</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="4">
         <v>9.2797239927041701</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="16">
         <v>1.03559267204897E-14</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>0.28434011239093998</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="4">
         <v>1.1212630105247201</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="4">
         <v>0.26566063023716102</v>
       </c>
-      <c r="O13" s="33"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="12">
         <v>0.97795021489671996</v>
       </c>
@@ -1456,101 +1669,101 @@
       <c r="S13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="24">
         <v>19.992892999999999</v>
       </c>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="32" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33">
+      <c r="F14" s="2"/>
+      <c r="G14" s="4">
         <v>0.758884630083279</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="4">
         <v>0.67746905063087903</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="4">
         <v>9.3211229986635598</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="16">
         <v>9.2074272846349305E-15</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
         <v>0.97266401921704904</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="4">
         <v>3.4675339602142699</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="16">
         <v>8.6275182031679001E-4</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
         <v>0.99974484641033801</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="4">
         <v>1.7874180622215301</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="4">
         <v>0.20341042604078699</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="40"/>
+      <c r="T14" s="25"/>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33">
+      <c r="F15" s="2"/>
+      <c r="G15" s="4">
         <v>0.82267157492862597</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="4">
         <v>0.76279444438504496</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="4">
         <v>13.7393286461824</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="16">
         <v>1.7087318234033099E-19</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>0.66613178876269397</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="4">
         <v>5.1353862176695797</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="16">
         <v>2.0627642562210302E-6</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4">
         <v>0.98512946370032395</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="4">
         <v>1.59333012869017</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="4">
         <v>0.36605410157673701</v>
       </c>
-      <c r="S15" s="35" t="s">
+      <c r="S15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="40"/>
+      <c r="T15" s="25"/>
     </row>
     <row r="16" spans="3:21">
-      <c r="C16" s="25"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1590,47 +1803,47 @@
       <c r="S16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="20"/>
-    </row>
-    <row r="17" spans="3:20" s="36" customFormat="1" ht="3.5" customHeight="1">
-      <c r="C17" s="32"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="33"/>
-    </row>
-    <row r="18" spans="3:20" s="36" customFormat="1">
-      <c r="C18" s="32"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="33"/>
+      <c r="T16" s="26"/>
+    </row>
+    <row r="17" spans="3:20" ht="3.5" customHeight="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="3:20">
+      <c r="C18" s="2"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="3:20" ht="55" customHeight="1">
       <c r="C19" s="6" t="s">
@@ -1706,11 +1919,754 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A31BF-B8CE-4EBB-89AA-ED11DD5921BA}">
+  <dimension ref="C2:R21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="0.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.58203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.5" style="1" customWidth="1"/>
+    <col min="13" max="17" width="12.4140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="0.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18" ht="4" customHeight="1"/>
+    <row r="3" spans="3:18" ht="18" customHeight="1">
+      <c r="C3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="3:18" s="3" customFormat="1" ht="23">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="C5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="I5" s="54">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="J5" s="49">
+        <v>-4.9058999999999999</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-1.367</v>
+      </c>
+      <c r="L5" s="58">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1.9117500000000001</v>
+      </c>
+      <c r="O5" s="13">
+        <v>1.37E-2</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>4.5338520000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H6" s="44">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="I6" s="55">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J6" s="50">
+        <v>-3.5598000000000001</v>
+      </c>
+      <c r="K6" s="44">
+        <v>-0.90700000000000003</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="N6" s="44">
+        <v>1.9782999999999999</v>
+      </c>
+      <c r="O6" s="45">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H7" s="44">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="I7" s="55">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="J7" s="50">
+        <v>6.3583999999999996</v>
+      </c>
+      <c r="K7" s="44">
+        <v>1.794</v>
+      </c>
+      <c r="L7" s="56">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M7" s="44">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="N7" s="44">
+        <v>1.7648999999999999</v>
+      </c>
+      <c r="O7" s="44">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="50">
+        <v>0.251</v>
+      </c>
+      <c r="G8" s="44">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H8" s="44">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="I8" s="56">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="J8" s="50">
+        <v>6.2100999999999997</v>
+      </c>
+      <c r="K8" s="44">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="L8" s="56">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0.75070000000000003</v>
+      </c>
+      <c r="N8" s="44">
+        <v>1.9140999999999999</v>
+      </c>
+      <c r="O8" s="44">
+        <v>0.2366</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="3:18" ht="6" customHeight="1">
+      <c r="C9" s="43"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50">
+        <v>0.86997431316636697</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0.83465869452019603</v>
+      </c>
+      <c r="H10" s="44">
+        <v>24.6342651358501</v>
+      </c>
+      <c r="I10" s="55">
+        <v>3.8763359506545497E-27</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0.48608678431546798</v>
+      </c>
+      <c r="K10" s="44">
+        <v>5.0489400576020502</v>
+      </c>
+      <c r="L10" s="55">
+        <v>2.6844240692260998E-6</v>
+      </c>
+      <c r="M10" s="44">
+        <v>0.47248301804374498</v>
+      </c>
+      <c r="N10" s="44">
+        <v>1.8841930390908199</v>
+      </c>
+      <c r="O10" s="45">
+        <v>2.67002551740694E-2</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>7.2119780265715496</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="50">
+        <v>0.89491347544834998</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0.86637145643432201</v>
+      </c>
+      <c r="H11" s="44">
+        <v>31.3542456477415</v>
+      </c>
+      <c r="I11" s="55">
+        <v>9.1665570415395501E-31</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0.80139126081029499</v>
+      </c>
+      <c r="K11" s="44">
+        <v>10.158184837576499</v>
+      </c>
+      <c r="L11" s="55">
+        <v>4.1557203751232802E-16</v>
+      </c>
+      <c r="M11" s="44">
+        <v>0.64210630227296195</v>
+      </c>
+      <c r="N11" s="44">
+        <v>1.85201236361369</v>
+      </c>
+      <c r="O11" s="44">
+        <v>7.8388877973152998E-2</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" spans="3:18">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0.78961665844117501</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0.73247550394371597</v>
+      </c>
+      <c r="H12" s="44">
+        <v>13.818703268872399</v>
+      </c>
+      <c r="I12" s="55">
+        <v>4.4057235522806904E-19</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0.78503882292698801</v>
+      </c>
+      <c r="K12" s="44">
+        <v>8.9069291973454501</v>
+      </c>
+      <c r="L12" s="55">
+        <v>1.2137309652091701E-13</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0.52476506999171502</v>
+      </c>
+      <c r="N12" s="44">
+        <v>2.2257086676257498</v>
+      </c>
+      <c r="O12" s="45">
+        <v>8.2761374527393697E-3</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="3:18">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.82774563559300895</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.78096049958123304</v>
+      </c>
+      <c r="H13" s="44">
+        <v>17.692491807326899</v>
+      </c>
+      <c r="I13" s="55">
+        <v>2.1153448231904401E-22</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0.512497140461324</v>
+      </c>
+      <c r="K13" s="44">
+        <v>5.0664392303724197</v>
+      </c>
+      <c r="L13" s="55">
+        <v>2.50377206122692E-6</v>
+      </c>
+      <c r="M13" s="44">
+        <v>0.71956620018469897</v>
+      </c>
+      <c r="N13" s="44">
+        <v>2.1925516100089202</v>
+      </c>
+      <c r="O13" s="44">
+        <v>5.0526849848384903E-2</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="3:18" ht="6" customHeight="1">
+      <c r="C14" s="43"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="3:18" ht="14.5" customHeight="1">
+      <c r="C15" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="50">
+        <v>0.75806919648944804</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0.67637827582354804</v>
+      </c>
+      <c r="H15" s="44">
+        <v>9.2797239927041701</v>
+      </c>
+      <c r="I15" s="55">
+        <v>1.03559267204897E-14</v>
+      </c>
+      <c r="J15" s="50">
+        <v>0.28434011239093998</v>
+      </c>
+      <c r="K15" s="44">
+        <v>1.1212630105247201</v>
+      </c>
+      <c r="L15" s="56">
+        <v>0.26566063023716102</v>
+      </c>
+      <c r="M15" s="44">
+        <v>0.97795021489671996</v>
+      </c>
+      <c r="N15" s="44">
+        <v>1.7616386267661399</v>
+      </c>
+      <c r="O15" s="44">
+        <v>0.28634022100196899</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="61">
+        <v>19.992892999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0.758884630083279</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0.67746905063087903</v>
+      </c>
+      <c r="H16" s="44">
+        <v>9.3211229986635598</v>
+      </c>
+      <c r="I16" s="55">
+        <v>9.2074272846349305E-15</v>
+      </c>
+      <c r="J16" s="50">
+        <v>0.97266401921704904</v>
+      </c>
+      <c r="K16" s="44">
+        <v>3.4675339602142699</v>
+      </c>
+      <c r="L16" s="55">
+        <v>8.6275182031679001E-4</v>
+      </c>
+      <c r="M16" s="44">
+        <v>0.99974484641033801</v>
+      </c>
+      <c r="N16" s="44">
+        <v>1.7874180622215301</v>
+      </c>
+      <c r="O16" s="44">
+        <v>0.20341042604078699</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="50">
+        <v>0.82267157492862597</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0.76279444438504496</v>
+      </c>
+      <c r="H17" s="44">
+        <v>13.7393286461824</v>
+      </c>
+      <c r="I17" s="55">
+        <v>1.7087318234033099E-19</v>
+      </c>
+      <c r="J17" s="50">
+        <v>0.66613178876269397</v>
+      </c>
+      <c r="K17" s="44">
+        <v>5.1353862176695797</v>
+      </c>
+      <c r="L17" s="55">
+        <v>2.0627642562210302E-6</v>
+      </c>
+      <c r="M17" s="44">
+        <v>0.98512946370032395</v>
+      </c>
+      <c r="N17" s="44">
+        <v>1.59333012869017</v>
+      </c>
+      <c r="O17" s="44">
+        <v>0.36605410157673701</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="31"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="51">
+        <v>0.753593397720696</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.67039116837963197</v>
+      </c>
+      <c r="H18" s="11">
+        <v>9.0573702614572493</v>
+      </c>
+      <c r="I18" s="57">
+        <v>1.9586241982540501E-14</v>
+      </c>
+      <c r="J18" s="51">
+        <v>0.40342607841177902</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.6419712364843</v>
+      </c>
+      <c r="L18" s="59">
+        <v>0.10467424103492499</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.988565375574181</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1.8137322914538301</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0.54334794657754304</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="62"/>
+    </row>
+    <row r="19" spans="3:17" ht="3.5" customHeight="1">
+      <c r="C19" s="2"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="2"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="3:17" ht="55" customHeight="1">
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="H21" s="11">
+        <v>14.96</v>
+      </c>
+      <c r="I21" s="11">
+        <v>9.7700000000000005E-20</v>
+      </c>
+      <c r="J21" s="11">
+        <v>20.557200000000002</v>
+      </c>
+      <c r="K21" s="11">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1.6769000000000001</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>8.4132669999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
